--- a/resources/historical_join_db.xlsx
+++ b/resources/historical_join_db.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1825,10 +1825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:OC50"/>
+  <dimension ref="A1:OC49"/>
   <sheetViews>
-    <sheetView topLeftCell="HW1" workbookViewId="0">
-      <selection activeCell="HW1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -59672,1560 +59672,6 @@
       </c>
       <c r="OC49">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:393" x14ac:dyDescent="0.2">
-      <c r="E50">
-        <f>SUM(E2:E49)</f>
-        <v>641</v>
-      </c>
-      <c r="F50">
-        <f t="shared" ref="F50:BQ50" si="1">SUM(F2:F49)</f>
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="1"/>
-        <v>121</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="1"/>
-        <v>293</v>
-      </c>
-      <c r="Q50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="S50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="U50">
-        <f t="shared" si="1"/>
-        <v>142</v>
-      </c>
-      <c r="V50">
-        <f t="shared" si="1"/>
-        <v>421</v>
-      </c>
-      <c r="W50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="AA50">
-        <f t="shared" si="1"/>
-        <v>895</v>
-      </c>
-      <c r="AB50">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="AC50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD50">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="AE50">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="AF50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AG50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH50">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="AI50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AJ50">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="AK50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AM50">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="AN50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AO50">
-        <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
-      <c r="AP50">
-        <f t="shared" si="1"/>
-        <v>238</v>
-      </c>
-      <c r="AQ50">
-        <f t="shared" si="1"/>
-        <v>1033</v>
-      </c>
-      <c r="AR50">
-        <f t="shared" si="1"/>
-        <v>914</v>
-      </c>
-      <c r="AS50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AT50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AU50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AV50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AW50">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="AX50">
-        <f t="shared" si="1"/>
-        <v>611</v>
-      </c>
-      <c r="AY50">
-        <f t="shared" si="1"/>
-        <v>116</v>
-      </c>
-      <c r="AZ50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BA50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BB50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BC50">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="BD50">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="BE50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BF50">
-        <f t="shared" si="1"/>
-        <v>229</v>
-      </c>
-      <c r="BG50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BH50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BI50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BJ50">
-        <f t="shared" si="1"/>
-        <v>153</v>
-      </c>
-      <c r="BK50">
-        <f t="shared" si="1"/>
-        <v>469</v>
-      </c>
-      <c r="BL50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BM50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BN50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BO50">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="BP50">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="BQ50">
-        <f t="shared" si="1"/>
-        <v>3065</v>
-      </c>
-      <c r="BR50">
-        <f t="shared" ref="BR50:EC50" si="2">SUM(BR2:BR49)</f>
-        <v>59</v>
-      </c>
-      <c r="BS50">
-        <f t="shared" si="2"/>
-        <v>206</v>
-      </c>
-      <c r="BT50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BU50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BV50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BW50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BX50">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="BY50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BZ50">
-        <f t="shared" si="2"/>
-        <v>99</v>
-      </c>
-      <c r="CA50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="CB50">
-        <f t="shared" si="2"/>
-        <v>898</v>
-      </c>
-      <c r="CC50">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="CD50">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="CE50">
-        <f t="shared" si="2"/>
-        <v>425</v>
-      </c>
-      <c r="CF50">
-        <f t="shared" si="2"/>
-        <v>99</v>
-      </c>
-      <c r="CG50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="CH50">
-        <f t="shared" si="2"/>
-        <v>1016</v>
-      </c>
-      <c r="CI50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="CJ50">
-        <f t="shared" si="2"/>
-        <v>19288</v>
-      </c>
-      <c r="CK50">
-        <f t="shared" si="2"/>
-        <v>124</v>
-      </c>
-      <c r="CL50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="CM50">
-        <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="CN50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="CO50">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="CP50">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="CQ50">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="CR50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="CS50">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="CT50">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="CU50">
-        <f t="shared" si="2"/>
-        <v>375</v>
-      </c>
-      <c r="CV50">
-        <f t="shared" si="2"/>
-        <v>9747</v>
-      </c>
-      <c r="CW50">
-        <f t="shared" si="2"/>
-        <v>941</v>
-      </c>
-      <c r="CX50">
-        <f t="shared" si="2"/>
-        <v>5117</v>
-      </c>
-      <c r="CY50">
-        <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="CZ50">
-        <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="DA50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="DB50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="DC50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="DD50">
-        <f t="shared" si="2"/>
-        <v>162</v>
-      </c>
-      <c r="DE50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="DF50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="DG50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="DH50">
-        <f t="shared" si="2"/>
-        <v>92</v>
-      </c>
-      <c r="DI50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="DJ50">
-        <f t="shared" si="2"/>
-        <v>728</v>
-      </c>
-      <c r="DK50">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="DL50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="DM50">
-        <f t="shared" si="2"/>
-        <v>522</v>
-      </c>
-      <c r="DN50">
-        <f t="shared" si="2"/>
-        <v>5403</v>
-      </c>
-      <c r="DO50">
-        <f t="shared" si="2"/>
-        <v>1099</v>
-      </c>
-      <c r="DP50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="DQ50">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="DR50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="DS50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="DT50">
-        <f t="shared" si="2"/>
-        <v>249</v>
-      </c>
-      <c r="DU50">
-        <f t="shared" si="2"/>
-        <v>539</v>
-      </c>
-      <c r="DV50">
-        <f t="shared" si="2"/>
-        <v>148</v>
-      </c>
-      <c r="DW50">
-        <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="DX50">
-        <f t="shared" si="2"/>
-        <v>702</v>
-      </c>
-      <c r="DY50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="DZ50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="EA50">
-        <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="EB50">
-        <f t="shared" si="2"/>
-        <v>2512</v>
-      </c>
-      <c r="EC50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="ED50">
-        <f t="shared" ref="ED50:GO50" si="3">SUM(ED2:ED49)</f>
-        <v>21</v>
-      </c>
-      <c r="EE50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="EF50">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="EG50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="EH50">
-        <f t="shared" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="EI50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="EJ50">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="EK50">
-        <f t="shared" si="3"/>
-        <v>124</v>
-      </c>
-      <c r="EL50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="EM50">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="EN50">
-        <f t="shared" si="3"/>
-        <v>2357</v>
-      </c>
-      <c r="EO50">
-        <f t="shared" si="3"/>
-        <v>1340</v>
-      </c>
-      <c r="EP50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="EQ50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="ER50">
-        <f t="shared" si="3"/>
-        <v>401</v>
-      </c>
-      <c r="ES50">
-        <f t="shared" si="3"/>
-        <v>868</v>
-      </c>
-      <c r="ET50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="EU50">
-        <f t="shared" si="3"/>
-        <v>117</v>
-      </c>
-      <c r="EV50">
-        <f t="shared" si="3"/>
-        <v>115</v>
-      </c>
-      <c r="EW50">
-        <f t="shared" si="3"/>
-        <v>744</v>
-      </c>
-      <c r="EX50">
-        <f t="shared" si="3"/>
-        <v>2541</v>
-      </c>
-      <c r="EY50">
-        <f t="shared" si="3"/>
-        <v>2089</v>
-      </c>
-      <c r="EZ50">
-        <f t="shared" si="3"/>
-        <v>228</v>
-      </c>
-      <c r="FA50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="FB50">
-        <f t="shared" si="3"/>
-        <v>116</v>
-      </c>
-      <c r="FC50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="FD50">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="FE50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="FF50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="FG50">
-        <f t="shared" si="3"/>
-        <v>264</v>
-      </c>
-      <c r="FH50">
-        <f t="shared" si="3"/>
-        <v>817</v>
-      </c>
-      <c r="FI50">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="FJ50">
-        <f t="shared" si="3"/>
-        <v>267</v>
-      </c>
-      <c r="FK50">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="FL50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="FM50">
-        <f t="shared" si="3"/>
-        <v>1295</v>
-      </c>
-      <c r="FN50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="FO50">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="FP50">
-        <f t="shared" si="3"/>
-        <v>287</v>
-      </c>
-      <c r="FQ50">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="FR50">
-        <f t="shared" si="3"/>
-        <v>1097</v>
-      </c>
-      <c r="FS50">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="FT50">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="FU50">
-        <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
-      <c r="FV50">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="FW50">
-        <f t="shared" si="3"/>
-        <v>2087</v>
-      </c>
-      <c r="FX50">
-        <f t="shared" si="3"/>
-        <v>767</v>
-      </c>
-      <c r="FY50">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="FZ50">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="GA50">
-        <f t="shared" si="3"/>
-        <v>2537</v>
-      </c>
-      <c r="GB50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="GC50">
-        <f t="shared" si="3"/>
-        <v>976</v>
-      </c>
-      <c r="GD50">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="GE50">
-        <f t="shared" si="3"/>
-        <v>314</v>
-      </c>
-      <c r="GF50">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="GG50">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="GH50">
-        <f t="shared" si="3"/>
-        <v>575</v>
-      </c>
-      <c r="GI50">
-        <f t="shared" si="3"/>
-        <v>612</v>
-      </c>
-      <c r="GJ50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="GK50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="GL50">
-        <f t="shared" si="3"/>
-        <v>709</v>
-      </c>
-      <c r="GM50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="GN50">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="GO50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="GP50">
-        <f t="shared" ref="GP50:JA50" si="4">SUM(GP2:GP49)</f>
-        <v>0</v>
-      </c>
-      <c r="GQ50">
-        <f t="shared" si="4"/>
-        <v>201</v>
-      </c>
-      <c r="GR50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="GS50">
-        <f t="shared" si="4"/>
-        <v>202</v>
-      </c>
-      <c r="GT50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="GU50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="GV50">
-        <f t="shared" si="4"/>
-        <v>169</v>
-      </c>
-      <c r="GW50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="GX50">
-        <f t="shared" si="4"/>
-        <v>298</v>
-      </c>
-      <c r="GY50">
-        <f t="shared" si="4"/>
-        <v>312</v>
-      </c>
-      <c r="GZ50">
-        <f t="shared" si="4"/>
-        <v>294</v>
-      </c>
-      <c r="HA50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="HB50">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="HC50">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="HD50">
-        <f t="shared" si="4"/>
-        <v>2935</v>
-      </c>
-      <c r="HE50">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="HF50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="HG50">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="HH50">
-        <f t="shared" si="4"/>
-        <v>214</v>
-      </c>
-      <c r="HI50">
-        <f t="shared" si="4"/>
-        <v>726</v>
-      </c>
-      <c r="HJ50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="HK50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="HL50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="HM50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="HN50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="HO50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="HP50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="HQ50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="HR50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="HS50">
-        <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="HT50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="HU50">
-        <f t="shared" si="4"/>
-        <v>1189</v>
-      </c>
-      <c r="HV50">
-        <f t="shared" si="4"/>
-        <v>262</v>
-      </c>
-      <c r="HW50">
-        <f t="shared" si="4"/>
-        <v>351</v>
-      </c>
-      <c r="HX50">
-        <f t="shared" si="4"/>
-        <v>56</v>
-      </c>
-      <c r="HY50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="HZ50">
-        <f t="shared" si="4"/>
-        <v>1703</v>
-      </c>
-      <c r="IA50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="IB50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="IC50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="ID50">
-        <f t="shared" si="4"/>
-        <v>146</v>
-      </c>
-      <c r="IE50">
-        <f t="shared" si="4"/>
-        <v>2321</v>
-      </c>
-      <c r="IF50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="IG50">
-        <f t="shared" si="4"/>
-        <v>227</v>
-      </c>
-      <c r="IH50">
-        <f t="shared" si="4"/>
-        <v>886</v>
-      </c>
-      <c r="II50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="IJ50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="IK50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="IL50">
-        <f t="shared" si="4"/>
-        <v>785</v>
-      </c>
-      <c r="IM50">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="IN50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="IO50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="IP50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="IQ50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="IR50">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="IS50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="IT50">
-        <f t="shared" si="4"/>
-        <v>56</v>
-      </c>
-      <c r="IU50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="IV50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="IW50">
-        <f t="shared" si="4"/>
-        <v>287</v>
-      </c>
-      <c r="IX50">
-        <f t="shared" si="4"/>
-        <v>1598</v>
-      </c>
-      <c r="IY50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="IZ50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="JA50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="JB50">
-        <f t="shared" ref="JB50:LM50" si="5">SUM(JB2:JB49)</f>
-        <v>199</v>
-      </c>
-      <c r="JC50">
-        <f t="shared" si="5"/>
-        <v>104</v>
-      </c>
-      <c r="JD50">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="JE50">
-        <f t="shared" si="5"/>
-        <v>154</v>
-      </c>
-      <c r="JF50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="JG50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="JH50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="JI50">
-        <f t="shared" si="5"/>
-        <v>61</v>
-      </c>
-      <c r="JJ50">
-        <f t="shared" si="5"/>
-        <v>522</v>
-      </c>
-      <c r="JK50">
-        <f t="shared" si="5"/>
-        <v>2606</v>
-      </c>
-      <c r="JL50">
-        <f t="shared" si="5"/>
-        <v>170</v>
-      </c>
-      <c r="JM50">
-        <f t="shared" si="5"/>
-        <v>74</v>
-      </c>
-      <c r="JN50">
-        <f t="shared" si="5"/>
-        <v>2662</v>
-      </c>
-      <c r="JO50">
-        <f t="shared" si="5"/>
-        <v>69</v>
-      </c>
-      <c r="JP50">
-        <f t="shared" si="5"/>
-        <v>47</v>
-      </c>
-      <c r="JQ50">
-        <f t="shared" si="5"/>
-        <v>327</v>
-      </c>
-      <c r="JR50">
-        <f t="shared" si="5"/>
-        <v>338</v>
-      </c>
-      <c r="JS50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="JT50">
-        <f t="shared" si="5"/>
-        <v>545</v>
-      </c>
-      <c r="JU50">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="JV50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="JW50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="JX50">
-        <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="JY50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="JZ50">
-        <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="KA50">
-        <f t="shared" si="5"/>
-        <v>229</v>
-      </c>
-      <c r="KB50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="KC50">
-        <f t="shared" si="5"/>
-        <v>6176</v>
-      </c>
-      <c r="KD50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="KE50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="KF50">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="KG50">
-        <f t="shared" si="5"/>
-        <v>449</v>
-      </c>
-      <c r="KH50">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="KI50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="KJ50">
-        <f t="shared" si="5"/>
-        <v>1600</v>
-      </c>
-      <c r="KK50">
-        <f t="shared" si="5"/>
-        <v>126</v>
-      </c>
-      <c r="KL50">
-        <f t="shared" si="5"/>
-        <v>59</v>
-      </c>
-      <c r="KM50">
-        <f t="shared" si="5"/>
-        <v>83</v>
-      </c>
-      <c r="KN50">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="KO50">
-        <f t="shared" si="5"/>
-        <v>4164</v>
-      </c>
-      <c r="KP50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="KQ50">
-        <f t="shared" si="5"/>
-        <v>5632</v>
-      </c>
-      <c r="KR50">
-        <f t="shared" si="5"/>
-        <v>120</v>
-      </c>
-      <c r="KS50">
-        <f t="shared" si="5"/>
-        <v>781</v>
-      </c>
-      <c r="KT50">
-        <f t="shared" si="5"/>
-        <v>81</v>
-      </c>
-      <c r="KU50">
-        <f t="shared" si="5"/>
-        <v>156</v>
-      </c>
-      <c r="KV50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="KW50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="KX50">
-        <f t="shared" si="5"/>
-        <v>205</v>
-      </c>
-      <c r="KY50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="KZ50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="LA50">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="LB50">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="LC50">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="LD50">
-        <f t="shared" si="5"/>
-        <v>119</v>
-      </c>
-      <c r="LE50">
-        <f t="shared" si="5"/>
-        <v>267</v>
-      </c>
-      <c r="LF50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="LG50">
-        <f t="shared" si="5"/>
-        <v>47</v>
-      </c>
-      <c r="LH50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="LI50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="LJ50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="LK50">
-        <f t="shared" si="5"/>
-        <v>246</v>
-      </c>
-      <c r="LL50">
-        <f t="shared" si="5"/>
-        <v>59</v>
-      </c>
-      <c r="LM50">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="LN50">
-        <f t="shared" ref="LN50:NY50" si="6">SUM(LN2:LN49)</f>
-        <v>65</v>
-      </c>
-      <c r="LO50">
-        <f t="shared" si="6"/>
-        <v>41</v>
-      </c>
-      <c r="LP50">
-        <f t="shared" si="6"/>
-        <v>78</v>
-      </c>
-      <c r="LQ50">
-        <f t="shared" si="6"/>
-        <v>110</v>
-      </c>
-      <c r="LR50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="LS50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="LT50">
-        <f t="shared" si="6"/>
-        <v>541</v>
-      </c>
-      <c r="LU50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="LV50">
-        <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="LW50">
-        <f t="shared" si="6"/>
-        <v>3275</v>
-      </c>
-      <c r="LX50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="LY50">
-        <f t="shared" si="6"/>
-        <v>62</v>
-      </c>
-      <c r="LZ50">
-        <f t="shared" si="6"/>
-        <v>122</v>
-      </c>
-      <c r="MA50">
-        <f t="shared" si="6"/>
-        <v>293</v>
-      </c>
-      <c r="MB50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="MC50">
-        <f t="shared" si="6"/>
-        <v>463</v>
-      </c>
-      <c r="MD50">
-        <f t="shared" si="6"/>
-        <v>9443</v>
-      </c>
-      <c r="ME50">
-        <f t="shared" si="6"/>
-        <v>67</v>
-      </c>
-      <c r="MF50">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="MG50">
-        <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="MH50">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="MI50">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="MJ50">
-        <f t="shared" si="6"/>
-        <v>140</v>
-      </c>
-      <c r="MK50">
-        <f t="shared" si="6"/>
-        <v>62</v>
-      </c>
-      <c r="ML50">
-        <f t="shared" si="6"/>
-        <v>729</v>
-      </c>
-      <c r="MM50">
-        <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="MN50">
-        <f t="shared" si="6"/>
-        <v>560</v>
-      </c>
-      <c r="MO50">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="MP50">
-        <f t="shared" si="6"/>
-        <v>666</v>
-      </c>
-      <c r="MQ50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="MR50">
-        <f t="shared" si="6"/>
-        <v>134</v>
-      </c>
-      <c r="MS50">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="MT50">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="MU50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="MV50">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="MW50">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="MX50">
-        <f t="shared" si="6"/>
-        <v>337</v>
-      </c>
-      <c r="MY50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="MZ50">
-        <f t="shared" si="6"/>
-        <v>1122</v>
-      </c>
-      <c r="NA50">
-        <f t="shared" si="6"/>
-        <v>719</v>
-      </c>
-      <c r="NB50">
-        <f t="shared" si="6"/>
-        <v>532</v>
-      </c>
-      <c r="NC50">
-        <f t="shared" si="6"/>
-        <v>697</v>
-      </c>
-      <c r="ND50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="NE50">
-        <f t="shared" si="6"/>
-        <v>3267</v>
-      </c>
-      <c r="NF50">
-        <f t="shared" si="6"/>
-        <v>303</v>
-      </c>
-      <c r="NG50">
-        <f t="shared" si="6"/>
-        <v>3709</v>
-      </c>
-      <c r="NH50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="NI50">
-        <f t="shared" si="6"/>
-        <v>429</v>
-      </c>
-      <c r="NJ50">
-        <f t="shared" si="6"/>
-        <v>72</v>
-      </c>
-      <c r="NK50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="NL50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="NM50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="NN50">
-        <f t="shared" si="6"/>
-        <v>65</v>
-      </c>
-      <c r="NO50">
-        <f t="shared" si="6"/>
-        <v>837</v>
-      </c>
-      <c r="NP50">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="NQ50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="NR50">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="NS50">
-        <f t="shared" si="6"/>
-        <v>3186</v>
-      </c>
-      <c r="NT50">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="NU50">
-        <f t="shared" si="6"/>
-        <v>274</v>
-      </c>
-      <c r="NV50">
-        <f t="shared" si="6"/>
-        <v>310</v>
-      </c>
-      <c r="NW50">
-        <f t="shared" si="6"/>
-        <v>520</v>
-      </c>
-      <c r="NX50">
-        <f t="shared" si="6"/>
-        <v>123</v>
-      </c>
-      <c r="NY50">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="NZ50">
-        <f t="shared" ref="NZ50:OB50" si="7">SUM(NZ2:NZ49)</f>
-        <v>0</v>
-      </c>
-      <c r="OA50">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="OB50">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -61238,8 +59684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:NZ50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/resources/historical_join_db.xlsx
+++ b/resources/historical_join_db.xlsx
@@ -1757,8 +1757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:NC51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="MW1" workbookViewId="0">
-      <selection activeCell="NC2" sqref="NC2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="NB3" sqref="A3:NB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3966,8 +3966,8 @@
         <v>0</v>
       </c>
       <c r="NC2">
-        <f>SUM(E2:NB2)</f>
-        <v>116</v>
+        <f>COUNTIF(E2:NB2,"&gt;0")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:367" x14ac:dyDescent="0.2">
@@ -5067,8 +5067,8 @@
         <v>0</v>
       </c>
       <c r="NC3">
-        <f t="shared" ref="NC3:NC51" si="0">SUM(E3:NB3)</f>
-        <v>461</v>
+        <f t="shared" ref="NC3:NC51" si="0">COUNTIF(E3:NB3,"&gt;0")</f>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:367" x14ac:dyDescent="0.2">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="NC4">
         <f t="shared" si="0"/>
-        <v>3583</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:367" x14ac:dyDescent="0.2">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="NC5">
         <f t="shared" si="0"/>
-        <v>723</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:367" x14ac:dyDescent="0.2">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="NC6">
         <f t="shared" si="0"/>
-        <v>925</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:367" x14ac:dyDescent="0.2">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="NC7">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:367" x14ac:dyDescent="0.2">
@@ -10582,7 +10582,7 @@
       </c>
       <c r="NC8">
         <f t="shared" si="0"/>
-        <v>2605</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:367" x14ac:dyDescent="0.2">
@@ -11683,7 +11683,7 @@
       </c>
       <c r="NC9">
         <f t="shared" si="0"/>
-        <v>403</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:367" x14ac:dyDescent="0.2">
@@ -13885,7 +13885,7 @@
       </c>
       <c r="NC11">
         <f t="shared" si="0"/>
-        <v>435</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:367" x14ac:dyDescent="0.2">
@@ -14986,7 +14986,7 @@
       </c>
       <c r="NC12">
         <f t="shared" si="0"/>
-        <v>953</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:367" x14ac:dyDescent="0.2">
@@ -16087,7 +16087,7 @@
       </c>
       <c r="NC13">
         <f t="shared" si="0"/>
-        <v>2424</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:367" x14ac:dyDescent="0.2">
@@ -17188,7 +17188,7 @@
       </c>
       <c r="NC14">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:367" x14ac:dyDescent="0.2">
@@ -18292,7 +18292,7 @@
       </c>
       <c r="NC15">
         <f t="shared" si="0"/>
-        <v>13780</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:367" x14ac:dyDescent="0.2">
@@ -19396,7 +19396,7 @@
       </c>
       <c r="NC16">
         <f t="shared" si="0"/>
-        <v>1815</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:367" x14ac:dyDescent="0.2">
@@ -20497,7 +20497,7 @@
       </c>
       <c r="NC17">
         <f t="shared" si="0"/>
-        <v>4857</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:367" x14ac:dyDescent="0.2">
@@ -21598,7 +21598,7 @@
       </c>
       <c r="NC18">
         <f t="shared" si="0"/>
-        <v>13948</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:367" x14ac:dyDescent="0.2">
@@ -22702,7 +22702,7 @@
       </c>
       <c r="NC19">
         <f t="shared" si="0"/>
-        <v>10430</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:367" x14ac:dyDescent="0.2">
@@ -23803,7 +23803,7 @@
       </c>
       <c r="NC20">
         <f t="shared" si="0"/>
-        <v>817</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:367" x14ac:dyDescent="0.2">
@@ -24904,7 +24904,7 @@
       </c>
       <c r="NC21">
         <f t="shared" si="0"/>
-        <v>187</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:367" x14ac:dyDescent="0.2">
@@ -26008,7 +26008,7 @@
       </c>
       <c r="NC22">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:367" x14ac:dyDescent="0.2">
@@ -27112,7 +27112,7 @@
       </c>
       <c r="NC23">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:367" x14ac:dyDescent="0.2">
@@ -28216,7 +28216,7 @@
       </c>
       <c r="NC24">
         <f t="shared" si="0"/>
-        <v>1215</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:367" x14ac:dyDescent="0.2">
@@ -29317,7 +29317,7 @@
       </c>
       <c r="NC25">
         <f t="shared" si="0"/>
-        <v>1794</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:367" x14ac:dyDescent="0.2">
@@ -31519,7 +31519,7 @@
       </c>
       <c r="NC27">
         <f t="shared" si="0"/>
-        <v>209</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:367" x14ac:dyDescent="0.2">
@@ -32623,7 +32623,7 @@
       </c>
       <c r="NC28">
         <f t="shared" si="0"/>
-        <v>17516</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:367" x14ac:dyDescent="0.2">
@@ -33724,7 +33724,7 @@
       </c>
       <c r="NC29">
         <f t="shared" si="0"/>
-        <v>893</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:367" x14ac:dyDescent="0.2">
@@ -34825,7 +34825,7 @@
       </c>
       <c r="NC30">
         <f t="shared" si="0"/>
-        <v>373</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:367" x14ac:dyDescent="0.2">
@@ -35926,7 +35926,7 @@
       </c>
       <c r="NC31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:367" x14ac:dyDescent="0.2">
@@ -37030,7 +37030,7 @@
       </c>
       <c r="NC32">
         <f t="shared" si="0"/>
-        <v>4288</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:367" x14ac:dyDescent="0.2">
@@ -38134,7 +38134,7 @@
       </c>
       <c r="NC33">
         <f t="shared" si="0"/>
-        <v>716</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:367" x14ac:dyDescent="0.2">
@@ -39238,7 +39238,7 @@
       </c>
       <c r="NC34">
         <f t="shared" si="0"/>
-        <v>10925</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:367" x14ac:dyDescent="0.2">
@@ -40339,7 +40339,7 @@
       </c>
       <c r="NC35">
         <f t="shared" si="0"/>
-        <v>679</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:367" x14ac:dyDescent="0.2">
@@ -41443,7 +41443,7 @@
       </c>
       <c r="NC36">
         <f t="shared" si="0"/>
-        <v>14009</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:367" x14ac:dyDescent="0.2">
@@ -42547,7 +42547,7 @@
       </c>
       <c r="NC37">
         <f t="shared" si="0"/>
-        <v>7555</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:367" x14ac:dyDescent="0.2">
@@ -43651,7 +43651,7 @@
       </c>
       <c r="NC38">
         <f t="shared" si="0"/>
-        <v>15097</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:367" x14ac:dyDescent="0.2">
@@ -44752,7 +44752,7 @@
       </c>
       <c r="NC39">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:367" x14ac:dyDescent="0.2">
@@ -45856,7 +45856,7 @@
       </c>
       <c r="NC40">
         <f t="shared" si="0"/>
-        <v>11426</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:367" x14ac:dyDescent="0.2">
@@ -46957,7 +46957,7 @@
       </c>
       <c r="NC41">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:367" x14ac:dyDescent="0.2">
@@ -48061,7 +48061,7 @@
       </c>
       <c r="NC42">
         <f t="shared" si="0"/>
-        <v>8414</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:367" x14ac:dyDescent="0.2">
@@ -49165,7 +49165,7 @@
       </c>
       <c r="NC43">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:367" x14ac:dyDescent="0.2">
@@ -50266,7 +50266,7 @@
       </c>
       <c r="NC44">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:367" x14ac:dyDescent="0.2">
@@ -51367,7 +51367,7 @@
       </c>
       <c r="NC45">
         <f t="shared" si="0"/>
-        <v>8485</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:367" x14ac:dyDescent="0.2">
@@ -52468,7 +52468,7 @@
       </c>
       <c r="NC46">
         <f t="shared" si="0"/>
-        <v>406</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:367" x14ac:dyDescent="0.2">
@@ -53569,7 +53569,7 @@
       </c>
       <c r="NC47">
         <f t="shared" si="0"/>
-        <v>2069</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:367" x14ac:dyDescent="0.2">
@@ -54673,7 +54673,7 @@
       </c>
       <c r="NC48">
         <f t="shared" si="0"/>
-        <v>878</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:367" x14ac:dyDescent="0.2">
@@ -55777,7 +55777,7 @@
       </c>
       <c r="NC49">
         <f t="shared" si="0"/>
-        <v>330</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:367" x14ac:dyDescent="0.2">
@@ -56878,7 +56878,7 @@
       </c>
       <c r="NC50">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:367" x14ac:dyDescent="0.2">

--- a/resources/historical_join_db.xlsx
+++ b/resources/historical_join_db.xlsx
@@ -15532,7 +15532,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GoogleCloudFilestore</t>
+          <t>GoogleCloudFirestore</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -46519,7 +46519,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -46537,7 +46537,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -46672,7 +46672,7 @@
         <v>0</v>
       </c>
       <c r="BD42" t="n">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="BE42" t="n">
         <v>0</v>
@@ -46744,7 +46744,7 @@
         <v>0</v>
       </c>
       <c r="CB42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CC42" t="n">
         <v>0</v>
@@ -46828,7 +46828,7 @@
         <v>0</v>
       </c>
       <c r="DD42" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="DE42" t="n">
         <v>0</v>
@@ -46909,7 +46909,7 @@
         <v>0</v>
       </c>
       <c r="EE42" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="EF42" t="n">
         <v>0</v>
@@ -47023,7 +47023,7 @@
         <v>0</v>
       </c>
       <c r="FQ42" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="FR42" t="n">
         <v>0</v>
@@ -47032,7 +47032,7 @@
         <v>0</v>
       </c>
       <c r="FT42" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="FU42" t="n">
         <v>0</v>
@@ -47041,7 +47041,7 @@
         <v>0</v>
       </c>
       <c r="FW42" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="FX42" t="n">
         <v>0</v>
@@ -47128,7 +47128,7 @@
         <v>0</v>
       </c>
       <c r="GZ42" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="HA42" t="n">
         <v>0</v>
@@ -47404,7 +47404,7 @@
         <v>0</v>
       </c>
       <c r="KN42" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KO42" t="n">
         <v>0</v>
@@ -47497,10 +47497,10 @@
         <v>0</v>
       </c>
       <c r="LS42" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="LT42" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="LU42" t="n">
         <v>0</v>
@@ -47533,7 +47533,7 @@
         <v>0</v>
       </c>
       <c r="ME42" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="MF42" t="n">
         <v>0</v>
@@ -49835,7 +49835,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -49853,7 +49853,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -49988,7 +49988,7 @@
         <v>0</v>
       </c>
       <c r="BD45" t="n">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="BE45" t="n">
         <v>0</v>
@@ -50060,7 +50060,7 @@
         <v>0</v>
       </c>
       <c r="CB45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CC45" t="n">
         <v>0</v>
@@ -50081,7 +50081,7 @@
         <v>0</v>
       </c>
       <c r="CI45" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="CJ45" t="n">
         <v>0</v>
@@ -50108,10 +50108,10 @@
         <v>0</v>
       </c>
       <c r="CR45" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="CS45" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CT45" t="n">
         <v>0</v>
@@ -50126,7 +50126,7 @@
         <v>0</v>
       </c>
       <c r="CX45" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="CY45" t="n">
         <v>0</v>
@@ -50144,7 +50144,7 @@
         <v>0</v>
       </c>
       <c r="DD45" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="DE45" t="n">
         <v>0</v>
@@ -50225,7 +50225,7 @@
         <v>0</v>
       </c>
       <c r="EE45" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="EF45" t="n">
         <v>0</v>
@@ -50273,7 +50273,7 @@
         <v>0</v>
       </c>
       <c r="EU45" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="EV45" t="n">
         <v>0</v>
@@ -50339,7 +50339,7 @@
         <v>0</v>
       </c>
       <c r="FQ45" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="FR45" t="n">
         <v>0</v>
@@ -50348,7 +50348,7 @@
         <v>0</v>
       </c>
       <c r="FT45" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="FU45" t="n">
         <v>0</v>
@@ -50357,7 +50357,7 @@
         <v>0</v>
       </c>
       <c r="FW45" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="FX45" t="n">
         <v>0</v>
@@ -50426,155 +50426,155 @@
         <v>0</v>
       </c>
       <c r="GT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY45" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID45" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="II45" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK45" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO45" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP45" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ45" t="n">
         <v>10</v>
       </c>
-      <c r="GU45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ45" t="n">
-        <v>23</v>
-      </c>
-      <c r="HA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID45" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH45" t="n">
-        <v>0</v>
-      </c>
-      <c r="II45" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL45" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM45" t="n">
-        <v>7099</v>
-      </c>
-      <c r="IN45" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO45" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP45" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ45" t="n">
-        <v>58</v>
-      </c>
       <c r="IR45" t="n">
         <v>0</v>
       </c>
@@ -50681,7 +50681,7 @@
         <v>0</v>
       </c>
       <c r="KA45" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="KB45" t="n">
         <v>0</v>
@@ -50720,7 +50720,7 @@
         <v>0</v>
       </c>
       <c r="KN45" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="KO45" t="n">
         <v>0</v>
@@ -50813,10 +50813,10 @@
         <v>0</v>
       </c>
       <c r="LS45" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="LT45" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="LU45" t="n">
         <v>0</v>
@@ -50849,7 +50849,7 @@
         <v>0</v>
       </c>
       <c r="ME45" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="MF45" t="n">
         <v>0</v>
@@ -50900,7 +50900,7 @@
         <v>0</v>
       </c>
       <c r="MV45" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="MW45" t="n">
         <v>0</v>
